--- a/Data Representation/hypo1/Crime_Levels_Pie_Chart.xlsx
+++ b/Data Representation/hypo1/Crime_Levels_Pie_Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshu\Documents\GitHub\Geography-NEA\Data Representation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshu\Documents\GitHub\Geography-NEA\Data Representation\hypo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23CB341-7740-4C35-970A-61F0FB65EAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB6E067-0FB9-4B98-88DA-E0241D22933A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51A48FB2-8A6A-47CF-BB04-8D499CE7974F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{51A48FB2-8A6A-47CF-BB04-8D499CE7974F}"/>
   </bookViews>
   <sheets>
     <sheet name="hypo1" sheetId="1" r:id="rId1"/>
@@ -536,6 +536,62 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>hypo1!$A$3:$A$14</c:f>
@@ -632,8 +688,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -726,516 +783,6 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Street Check crime levels through Sept 2022</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-04B6-4E67-B90A-BD12DFE64251}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-04B6-4E67-B90A-BD12DFE64251}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-04B6-4E67-B90A-BD12DFE64251}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-04B6-4E67-B90A-BD12DFE64251}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-04B6-4E67-B90A-BD12DFE64251}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-04B6-4E67-B90A-BD12DFE64251}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-04B6-4E67-B90A-BD12DFE64251}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-04B6-4E67-B90A-BD12DFE64251}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-04B6-4E67-B90A-BD12DFE64251}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-04B6-4E67-B90A-BD12DFE64251}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-04B6-4E67-B90A-BD12DFE64251}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-04B6-4E67-B90A-BD12DFE64251}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>hypo1!$D$3:$D$14</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Anti-Social Behaviour</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Bike Theft</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Burglary</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Criminal Damage and Arson</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Drugs</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Other Crime</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Other theft</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Public Order</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Robbery</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Shoplifting</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Theft from person</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Violence and Sexual Offences</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>hypo1!$E$3:$E$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BD48-49E8-82F0-2FEEF45EE160}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.943337463896856E-4"/>
-          <c:y val="0.96207874860613563"/>
-          <c:w val="0.85609560448362454"/>
-          <c:h val="3.7921251393864416E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1731,7 +1278,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2305,7 +1852,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2423,6 +1970,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>hypo1!$F$111:$F$146</c:f>
@@ -2667,7 +2272,7 @@
         <c:dLbls>
           <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2685,6 +2290,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2804,6 +2423,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2907,6 +2540,508 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Street Check</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Crime Levels through September 2022</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>hypo1!$D$3:$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Anti-Social Behaviour</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bike Theft</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Burglary</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Criminal Damage and Arson</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Drugs</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Other Crime</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other theft</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Public Order</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Robbery</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Shoplifting</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Theft from person</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Violence and Sexual Offences</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>hypo1!$E$3:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E7C-45A7-B854-71284A307553}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3072,6 +3207,43 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3111,43 +3283,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -4706,7 +4841,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4763,7 +4898,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -4814,13 +4949,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4831,19 +4959,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -4881,7 +5002,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -4924,23 +5045,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5045,8 +5165,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5178,20 +5298,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5225,7 +5344,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5282,7 +5401,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -5333,6 +5452,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5343,12 +5469,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5386,7 +5519,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5429,22 +5562,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5549,8 +5683,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5682,19 +5816,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5768,42 +5903,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>540019</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>167130</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>197764</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>17959</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{820B16A5-508C-3461-84DF-5634FA32D470}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
       <xdr:colOff>2350294</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>119061</xdr:rowOff>
@@ -5831,7 +5930,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5867,7 +5966,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5994,6 +6093,42 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3022276-0DBE-E18A-3C80-52026591119A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038B67C2-2789-D074-3F62-ADADE78D137D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6313,20 +6448,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F55BD13-5CC1-4CF1-AEBA-31A7FA1DCEC4}">
   <dimension ref="A1:R150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="80" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="D105" zoomScale="60" workbookViewId="0">
+      <selection activeCell="V146" sqref="V146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -6336,7 +6471,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6351,7 +6486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -6362,7 +6497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -6376,7 +6511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -6387,7 +6522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -6401,7 +6536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -6412,7 +6547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -6423,7 +6558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -6437,7 +6572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -6451,7 +6586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -6462,7 +6597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -6476,7 +6611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -6487,7 +6622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -6501,7 +6636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15">
         <f>SUM(B3:B14)</f>
         <v>87</v>
@@ -6511,7 +6646,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -6519,7 +6654,7 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="53" spans="14:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="14:18" x14ac:dyDescent="0.3">
       <c r="N53" t="s">
         <v>23</v>
       </c>
@@ -6527,7 +6662,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="14:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="14:18" x14ac:dyDescent="0.3">
       <c r="N54" t="s">
         <v>20</v>
       </c>
@@ -6541,7 +6676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="14:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="14:18" x14ac:dyDescent="0.3">
       <c r="N55" t="s">
         <v>22</v>
       </c>
@@ -6555,7 +6690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="14:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="14:18" x14ac:dyDescent="0.3">
       <c r="N56" t="s">
         <v>24</v>
       </c>
@@ -6569,7 +6704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="14:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="14:18" x14ac:dyDescent="0.3">
       <c r="N57" t="s">
         <v>25</v>
       </c>
@@ -6580,7 +6715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="14:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="14:18" x14ac:dyDescent="0.3">
       <c r="N58" t="s">
         <v>26</v>
       </c>
@@ -6594,7 +6729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="14:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="14:18" x14ac:dyDescent="0.3">
       <c r="N59" t="s">
         <v>27</v>
       </c>
@@ -6605,7 +6740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="14:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="14:18" x14ac:dyDescent="0.3">
       <c r="N60" t="s">
         <v>28</v>
       </c>
@@ -6619,7 +6754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="14:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="14:18" x14ac:dyDescent="0.3">
       <c r="N61" t="s">
         <v>29</v>
       </c>
@@ -6633,7 +6768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="14:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="14:18" x14ac:dyDescent="0.3">
       <c r="N62" t="s">
         <v>30</v>
       </c>
@@ -6647,7 +6782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="14:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="14:18" x14ac:dyDescent="0.3">
       <c r="N63" t="s">
         <v>31</v>
       </c>
@@ -6661,7 +6796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="14:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="14:18" x14ac:dyDescent="0.3">
       <c r="Q64" t="s">
         <v>18</v>
       </c>
@@ -6669,7 +6804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="17:18" x14ac:dyDescent="0.3">
       <c r="Q65" t="s">
         <v>14</v>
       </c>
@@ -6677,7 +6812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="17:18" x14ac:dyDescent="0.3">
       <c r="Q66" t="s">
         <v>15</v>
       </c>
@@ -6685,13 +6820,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="17:18" x14ac:dyDescent="0.3">
       <c r="R67">
         <f>SUM(R55:R66)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F110" t="s">
         <v>33</v>
       </c>
@@ -6699,7 +6834,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F111" s="2">
         <v>43739</v>
       </c>
@@ -6707,7 +6842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F112" s="2">
         <v>43770</v>
       </c>
@@ -6715,7 +6850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F113" s="2">
         <v>43800</v>
       </c>
@@ -6723,7 +6858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F114" s="2">
         <v>43831</v>
       </c>
@@ -6731,7 +6866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F115" s="2">
         <v>43862</v>
       </c>
@@ -6739,7 +6874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F116" s="2">
         <v>43891</v>
       </c>
@@ -6747,7 +6882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F117" s="2">
         <v>43922</v>
       </c>
@@ -6755,7 +6890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F118" s="2">
         <v>43952</v>
       </c>
@@ -6763,7 +6898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F119" s="2">
         <v>43983</v>
       </c>
@@ -6771,7 +6906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F120" s="2">
         <v>44013</v>
       </c>
@@ -6779,7 +6914,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="121" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F121" s="2">
         <v>44044</v>
       </c>
@@ -6787,7 +6922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F122" s="2">
         <v>44075</v>
       </c>
@@ -6795,7 +6930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F123" s="2">
         <v>44105</v>
       </c>
@@ -6803,7 +6938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F124" s="2">
         <v>44136</v>
       </c>
@@ -6811,7 +6946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F125" s="2">
         <v>44166</v>
       </c>
@@ -6819,7 +6954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F126" s="2">
         <v>44197</v>
       </c>
@@ -6827,7 +6962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F127" s="2">
         <v>44228</v>
       </c>
@@ -6835,7 +6970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F128" s="2">
         <v>44256</v>
       </c>
@@ -6843,7 +6978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F129" s="2">
         <v>44287</v>
       </c>
@@ -6851,7 +6986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F130" s="2">
         <v>44317</v>
       </c>
@@ -6859,7 +6994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F131" s="2">
         <v>44348</v>
       </c>
@@ -6867,7 +7002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F132" s="2">
         <v>44378</v>
       </c>
@@ -6875,7 +7010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F133" s="2">
         <v>44409</v>
       </c>
@@ -6883,7 +7018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F134" s="2">
         <v>44440</v>
       </c>
@@ -6891,7 +7026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F135" s="2">
         <v>44470</v>
       </c>
@@ -6899,7 +7034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F136" s="2">
         <v>44501</v>
       </c>
@@ -6907,7 +7042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F137" s="2">
         <v>44531</v>
       </c>
@@ -6915,7 +7050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F138" s="2">
         <v>44562</v>
       </c>
@@ -6923,7 +7058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F139" s="2">
         <v>44593</v>
       </c>
@@ -6931,7 +7066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F140" s="2">
         <v>44621</v>
       </c>
@@ -6939,7 +7074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F141" s="2">
         <v>44652</v>
       </c>
@@ -6947,7 +7082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F142" s="2">
         <v>44682</v>
       </c>
@@ -6955,7 +7090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F143" s="2">
         <v>44713</v>
       </c>
@@ -6963,7 +7098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F144" s="2">
         <v>44743</v>
       </c>
@@ -6971,7 +7106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F145" s="2">
         <v>44774</v>
       </c>
@@ -6979,7 +7114,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F146" s="2">
         <v>44805</v>
       </c>
@@ -6987,16 +7122,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="147" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F147" s="2"/>
     </row>
-    <row r="148" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F149" s="2"/>
     </row>
-    <row r="150" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F150" s="2"/>
     </row>
   </sheetData>

--- a/Data Representation/hypo1/Crime_Levels_Pie_Chart.xlsx
+++ b/Data Representation/hypo1/Crime_Levels_Pie_Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshu\Documents\GitHub\Geography-NEA\Data Representation\hypo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB6E067-0FB9-4B98-88DA-E0241D22933A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F09EB63-B4EC-4EA3-82EF-99128D4806F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{51A48FB2-8A6A-47CF-BB04-8D499CE7974F}"/>
   </bookViews>
@@ -2619,11 +2619,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Street Check</a:t>
+              <a:t>Street Check crim</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Crime Levels through September 2022</a:t>
+              <a:t>e levels through September 2022</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -2661,203 +2661,23 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2888,30 +2708,32 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="bestFit"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2987,22 +2809,255 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6E7C-45A7-B854-71284A307553}"/>
+              <c16:uniqueId val="{00000000-50AF-4455-A7C1-2A07782DC8E8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="bestFit"/>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="798096607"/>
+        <c:axId val="798086623"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="798096607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Type of crime</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="798086623"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="798086623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of times the crime occured</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="798096607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3011,37 +3066,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5344,7 +5368,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5401,7 +5425,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -5452,13 +5476,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5469,19 +5486,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5519,7 +5529,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5562,23 +5572,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5683,8 +5692,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5816,20 +5825,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6113,22 +6121,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038B67C2-2789-D074-3F62-ADADE78D137D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFD46D61-14AA-4D76-C31E-EE13BC299969}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6448,8 +6456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F55BD13-5CC1-4CF1-AEBA-31A7FA1DCEC4}">
   <dimension ref="A1:R150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D105" zoomScale="60" workbookViewId="0">
-      <selection activeCell="V146" sqref="V146"/>
+    <sheetView tabSelected="1" topLeftCell="B102" zoomScale="60" workbookViewId="0">
+      <selection activeCell="Q108" sqref="Q108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
